--- a/raw-data/cornell_raw_all.xlsx
+++ b/raw-data/cornell_raw_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Github/Mowtivation/raw-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FF45099-2525-034F-B4AE-44BE8137C9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D275CB3C-1B83-E948-97B5-F9ED023417C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="1560" windowWidth="34560" windowHeight="20440" xr2:uid="{77847AE4-1809-E64B-892D-58C8C4CB3F31}"/>
+    <workbookView xWindow="5600" yWindow="820" windowWidth="34560" windowHeight="20440" xr2:uid="{77847AE4-1809-E64B-892D-58C8C4CB3F31}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="83">
   <si>
     <t>CU_B1_P101</t>
   </si>
@@ -128,9 +128,6 @@
     <t>block</t>
   </si>
   <si>
-    <t>pllot</t>
-  </si>
-  <si>
     <t>emerge</t>
   </si>
   <si>
@@ -285,6 +282,9 @@
   </si>
   <si>
     <t>field  O2 west</t>
+  </si>
+  <si>
+    <t>plot</t>
   </si>
 </sst>
 </file>
@@ -683,7 +683,7 @@
   <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -709,31 +709,31 @@
         <v>29</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="M1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="4">
         <v>2023</v>
@@ -771,7 +771,7 @@
         <v>63.489999999999995</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M2" s="4">
         <v>34.5</v>
@@ -785,7 +785,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="4">
         <v>2023</v>
@@ -815,7 +815,7 @@
         <v>31.695</v>
       </c>
       <c r="L3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M3" s="4">
         <v>39.5</v>
@@ -829,7 +829,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="4">
         <v>2023</v>
@@ -873,7 +873,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="4">
         <v>2023</v>
@@ -917,7 +917,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="4">
         <v>2023</v>
@@ -961,7 +961,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="4">
         <v>2023</v>
@@ -1005,7 +1005,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="4">
         <v>2023</v>
@@ -1049,7 +1049,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="4">
         <v>2023</v>
@@ -1093,7 +1093,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="4">
         <v>2023</v>
@@ -1123,7 +1123,7 @@
         <v>65.424999999999997</v>
       </c>
       <c r="L10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M10" s="4">
         <v>41.5</v>
@@ -1132,12 +1132,12 @@
         <v>583.53</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="4">
         <v>2023</v>
@@ -1167,7 +1167,7 @@
         <v>44.83</v>
       </c>
       <c r="L11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M11" s="4">
         <v>40.5</v>
@@ -1176,12 +1176,12 @@
         <v>485.35</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="4">
         <v>2023</v>
@@ -1211,7 +1211,7 @@
         <v>49.390000000000008</v>
       </c>
       <c r="L12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M12" s="4">
         <v>36.5</v>
@@ -1220,12 +1220,12 @@
         <v>478.85</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="4">
         <v>2023</v>
@@ -1255,7 +1255,7 @@
         <v>37.159999999999997</v>
       </c>
       <c r="L13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M13" s="4">
         <v>37.5</v>
@@ -1264,12 +1264,12 @@
         <v>481.27</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="4">
         <v>2023</v>
@@ -1313,7 +1313,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="4">
         <v>2023</v>
@@ -1357,7 +1357,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="4">
         <v>2023</v>
@@ -1401,7 +1401,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="4">
         <v>2023</v>
@@ -1445,7 +1445,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="4">
         <v>2023</v>
@@ -1489,7 +1489,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="4">
         <v>2023</v>
@@ -1533,7 +1533,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="4">
         <v>2023</v>
@@ -1563,7 +1563,7 @@
         <v>36.464999999999996</v>
       </c>
       <c r="L20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M20" s="4">
         <v>41.5</v>
@@ -1577,7 +1577,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="4">
         <v>2023</v>
@@ -1607,7 +1607,7 @@
         <v>79.16</v>
       </c>
       <c r="L21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M21" s="4">
         <v>43.5</v>
@@ -1618,10 +1618,10 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C22" s="4">
         <v>2024</v>
@@ -1636,7 +1636,7 @@
         <v>101</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H22">
         <v>476.20499999999998</v>
@@ -1651,7 +1651,7 @@
         <v>2.4649999999999999</v>
       </c>
       <c r="L22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M22">
         <v>44.5</v>
@@ -1662,10 +1662,10 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C23" s="4">
         <v>2024</v>
@@ -1680,7 +1680,7 @@
         <v>102</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H23">
         <v>447.4</v>
@@ -1695,7 +1695,7 @@
         <v>0.62</v>
       </c>
       <c r="L23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M23">
         <v>47.5</v>
@@ -1706,10 +1706,10 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C24" s="4">
         <v>2024</v>
@@ -1724,7 +1724,7 @@
         <v>103</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H24">
         <v>390.67</v>
@@ -1739,7 +1739,7 @@
         <v>0.45</v>
       </c>
       <c r="L24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M24">
         <v>36.5</v>
@@ -1750,10 +1750,10 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C25" s="4">
         <v>2024</v>
@@ -1768,7 +1768,7 @@
         <v>104</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H25">
         <v>410.72500000000002</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M25">
         <v>49</v>
@@ -1794,10 +1794,10 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C26" s="4">
         <v>2024</v>
@@ -1812,7 +1812,7 @@
         <v>105</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H26">
         <v>357.96499999999997</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M26">
         <v>46.5</v>
@@ -1838,10 +1838,10 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C27" s="4">
         <v>2024</v>
@@ -1856,7 +1856,7 @@
         <v>201</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H27">
         <v>423.77499999999998</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M27">
         <v>46</v>
@@ -1882,10 +1882,10 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28" s="4">
         <v>2024</v>
@@ -1900,7 +1900,7 @@
         <v>202</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H28">
         <v>393.08499999999998</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M28">
         <v>44</v>
@@ -1926,10 +1926,10 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C29" s="4">
         <v>2024</v>
@@ -1944,7 +1944,7 @@
         <v>203</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H29">
         <v>426.2</v>
@@ -1959,7 +1959,7 @@
         <v>0.30500000000000005</v>
       </c>
       <c r="L29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M29">
         <v>47</v>
@@ -1970,10 +1970,10 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C30" s="4">
         <v>2024</v>
@@ -1988,7 +1988,7 @@
         <v>204</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H30">
         <v>447.33</v>
@@ -2003,7 +2003,7 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="L30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M30">
         <v>46.5</v>
@@ -2014,10 +2014,10 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C31" s="4">
         <v>2024</v>
@@ -2032,7 +2032,7 @@
         <v>205</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H31">
         <v>450.995</v>
@@ -2047,7 +2047,7 @@
         <v>18.865000000000002</v>
       </c>
       <c r="L31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M31">
         <v>39.5</v>
@@ -2058,10 +2058,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C32" s="4">
         <v>2024</v>
@@ -2076,7 +2076,7 @@
         <v>301</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H32">
         <v>464</v>
@@ -2091,7 +2091,7 @@
         <v>0.20499999999999999</v>
       </c>
       <c r="L32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M32">
         <v>42</v>
@@ -2102,10 +2102,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C33" s="4">
         <v>2024</v>
@@ -2120,7 +2120,7 @@
         <v>302</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H33">
         <v>445.995</v>
@@ -2135,7 +2135,7 @@
         <v>17.62</v>
       </c>
       <c r="L33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M33">
         <v>37.5</v>
@@ -2146,10 +2146,10 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C34" s="4">
         <v>2024</v>
@@ -2164,7 +2164,7 @@
         <v>303</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H34">
         <v>469.65499999999997</v>
@@ -2179,7 +2179,7 @@
         <v>0.16000000000000003</v>
       </c>
       <c r="L34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M34">
         <v>47</v>
@@ -2190,10 +2190,10 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C35" s="4">
         <v>2024</v>
@@ -2208,7 +2208,7 @@
         <v>304</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H35">
         <v>416.95</v>
@@ -2223,7 +2223,7 @@
         <v>0.73</v>
       </c>
       <c r="L35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M35">
         <v>54</v>
@@ -2234,10 +2234,10 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C36" s="4">
         <v>2024</v>
@@ -2252,7 +2252,7 @@
         <v>305</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H36">
         <v>472.68</v>
@@ -2267,7 +2267,7 @@
         <v>23</v>
       </c>
       <c r="L36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M36">
         <v>45.5</v>
@@ -2278,10 +2278,10 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C37" s="4">
         <v>2024</v>
@@ -2296,7 +2296,7 @@
         <v>401</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H37">
         <v>437.55</v>
@@ -2311,7 +2311,7 @@
         <v>0.29499999999999998</v>
       </c>
       <c r="L37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M37">
         <v>53</v>
@@ -2322,10 +2322,10 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C38" s="4">
         <v>2024</v>
@@ -2340,7 +2340,7 @@
         <v>402</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H38">
         <v>396.495</v>
@@ -2355,7 +2355,7 @@
         <v>1.95</v>
       </c>
       <c r="L38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M38">
         <v>40.5</v>
@@ -2366,10 +2366,10 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C39" s="4">
         <v>2024</v>
@@ -2384,7 +2384,7 @@
         <v>403</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H39">
         <v>378.375</v>
@@ -2399,7 +2399,7 @@
         <v>3.36</v>
       </c>
       <c r="L39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M39">
         <v>44.5</v>
@@ -2410,10 +2410,10 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C40" s="4">
         <v>2024</v>
@@ -2428,7 +2428,7 @@
         <v>404</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H40">
         <v>434.96</v>
@@ -2443,7 +2443,7 @@
         <v>0.20499999999999999</v>
       </c>
       <c r="L40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M40">
         <v>45</v>
@@ -2454,10 +2454,10 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C41" s="4">
         <v>2024</v>
@@ -2472,7 +2472,7 @@
         <v>405</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H41">
         <v>426.1</v>
@@ -2487,7 +2487,7 @@
         <v>5.0350000000000001</v>
       </c>
       <c r="L41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M41">
         <v>45.5</v>
@@ -2498,10 +2498,10 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C42" s="4">
         <v>2024</v>
@@ -2516,7 +2516,7 @@
         <v>101</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H42">
         <v>508.65499999999997</v>
@@ -2531,7 +2531,7 @@
         <v>12.09</v>
       </c>
       <c r="L42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M42">
         <v>45.5</v>
@@ -2542,10 +2542,10 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C43" s="4">
         <v>2024</v>
@@ -2560,7 +2560,7 @@
         <v>102</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H43">
         <v>503.56</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M43">
         <v>47.5</v>
@@ -2586,10 +2586,10 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C44" s="4">
         <v>2024</v>
@@ -2604,7 +2604,7 @@
         <v>103</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H44">
         <v>378.02499999999998</v>
@@ -2619,21 +2619,15 @@
         <v>0.05</v>
       </c>
       <c r="L44" t="s">
-        <v>37</v>
-      </c>
-      <c r="M44" t="s">
-        <v>37</v>
-      </c>
-      <c r="N44" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C45" s="4">
         <v>2024</v>
@@ -2648,7 +2642,7 @@
         <v>104</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H45">
         <v>423.45</v>
@@ -2663,7 +2657,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="L45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M45">
         <v>46</v>
@@ -2674,10 +2668,10 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C46" s="4">
         <v>2024</v>
@@ -2692,7 +2686,7 @@
         <v>105</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H46">
         <v>414.125</v>
@@ -2707,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M46">
         <v>46.5</v>
@@ -2718,10 +2712,10 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="4">
         <v>2024</v>
@@ -2736,7 +2730,7 @@
         <v>201</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H47">
         <v>415.09500000000003</v>
@@ -2751,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M47">
         <v>45</v>
@@ -2762,10 +2756,10 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C48" s="4">
         <v>2024</v>
@@ -2780,7 +2774,7 @@
         <v>202</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H48">
         <v>437.875</v>
@@ -2795,7 +2789,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="L48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M48">
         <v>43.5</v>
@@ -2806,10 +2800,10 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C49" s="4">
         <v>2024</v>
@@ -2824,7 +2818,7 @@
         <v>203</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H49">
         <v>409.44500000000005</v>
@@ -2839,7 +2833,7 @@
         <v>0.18</v>
       </c>
       <c r="L49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M49">
         <v>44</v>
@@ -2850,10 +2844,10 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C50" s="4">
         <v>2024</v>
@@ -2868,7 +2862,7 @@
         <v>204</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H50">
         <v>481.32499999999999</v>
@@ -2883,7 +2877,7 @@
         <v>0.10500000000000001</v>
       </c>
       <c r="L50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M50">
         <v>49</v>
@@ -2894,10 +2888,10 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C51" s="4">
         <v>2024</v>
@@ -2912,7 +2906,7 @@
         <v>205</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H51">
         <v>417.31</v>
@@ -2927,7 +2921,7 @@
         <v>12.074999999999999</v>
       </c>
       <c r="L51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M51">
         <v>46</v>
@@ -2938,10 +2932,10 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C52" s="4">
         <v>2024</v>
@@ -2956,7 +2950,7 @@
         <v>301</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H52">
         <v>456.25</v>
@@ -2971,7 +2965,7 @@
         <v>10.945</v>
       </c>
       <c r="L52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M52">
         <v>37</v>
@@ -2982,10 +2976,10 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C53" s="4">
         <v>2024</v>
@@ -3000,7 +2994,7 @@
         <v>302</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H53">
         <v>496.08500000000004</v>
@@ -3015,7 +3009,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="L53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M53">
         <v>38.5</v>
@@ -3026,10 +3020,10 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C54" s="4">
         <v>2024</v>
@@ -3044,7 +3038,7 @@
         <v>303</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H54">
         <v>342.25</v>
@@ -3059,7 +3053,7 @@
         <v>17.265000000000001</v>
       </c>
       <c r="L54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M54">
         <v>44.5</v>
@@ -3070,10 +3064,10 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C55" s="4">
         <v>2024</v>
@@ -3088,7 +3082,7 @@
         <v>304</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H55">
         <v>371.88</v>
@@ -3103,7 +3097,7 @@
         <v>14.64</v>
       </c>
       <c r="L55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M55">
         <v>46</v>
@@ -3114,10 +3108,10 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C56" s="4">
         <v>2024</v>
@@ -3132,7 +3126,7 @@
         <v>305</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H56">
         <v>374.745</v>
@@ -3147,7 +3141,7 @@
         <v>45.6</v>
       </c>
       <c r="L56" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M56">
         <v>48.5</v>
@@ -3158,10 +3152,10 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C57" s="4">
         <v>2024</v>
@@ -3176,7 +3170,7 @@
         <v>401</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H57">
         <v>322.3</v>
@@ -3191,7 +3185,7 @@
         <v>37.184999999999995</v>
       </c>
       <c r="L57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M57">
         <v>39.5</v>
@@ -3202,10 +3196,10 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C58" s="4">
         <v>2024</v>
@@ -3220,7 +3214,7 @@
         <v>402</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H58">
         <v>359.185</v>
@@ -3235,7 +3229,7 @@
         <v>3.7199999999999998</v>
       </c>
       <c r="L58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M58">
         <v>44.5</v>
@@ -3246,10 +3240,10 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C59" s="4">
         <v>2024</v>
@@ -3264,7 +3258,7 @@
         <v>403</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H59">
         <v>359.38</v>
@@ -3279,7 +3273,7 @@
         <v>2.6850000000000001</v>
       </c>
       <c r="L59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M59">
         <v>38</v>
@@ -3290,10 +3284,10 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C60" s="4">
         <v>2024</v>
@@ -3308,7 +3302,7 @@
         <v>404</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H60">
         <v>428</v>
@@ -3323,7 +3317,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="L60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M60">
         <v>50</v>
@@ -3334,10 +3328,10 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C61" s="4">
         <v>2024</v>
@@ -3352,7 +3346,7 @@
         <v>405</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H61">
         <v>470.08499999999998</v>
@@ -3367,7 +3361,7 @@
         <v>3.8899999999999997</v>
       </c>
       <c r="L61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M61">
         <v>45.5</v>
